--- a/Комаров, переработки--март-afl_rc-2016.xlsx
+++ b/Комаров, переработки--март-afl_rc-2016.xlsx
@@ -109,16 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,44 +463,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>42447</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>42449</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
